--- a/medicine/Médecine vétérinaire/Liste_de_plantes_toxiques_pour_les_chats/Liste_de_plantes_toxiques_pour_les_chats.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_de_plantes_toxiques_pour_les_chats/Liste_de_plantes_toxiques_pour_les_chats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste non exhaustive de plantes toxiques pour les chats.
 </t>
@@ -513,76 +525,319 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Amaryllidacées
-Amaryllis[1]
-Clivia[1]
-Crinium[1]
-Jonquille[2]
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Amaryllidacées
+Amaryllis
+Clivia
+Crinium
+Jonquille
 Apocynacées
-Allamanda[1]
-Diplanedia[1]
-Laurier rose[2]
+Allamanda
+Diplanedia
+Laurier rose
 Aquifoliacées
-Houx[3]
+Houx
 Aracées
-Diffenbachia[1]
-Anthurium[1]
-Philodendron[1]
-Arum[1]
-C
-Cannabacées
-Chanvre indien[2]
-Cannabis[2]
+Diffenbachia
+Anthurium
+Philodendron
+Arum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cannabacées
+Chanvre indien
+Cannabis
 Convolvulacées
-Chrysanthème[2]
-Volubilis[2]
+Chrysanthème
+Volubilis
 Cornacées
-Aucuba[2]
-E
-Ericacées
-Rhododendron jaune[1]
-Rhododendron du pont[1]
-Azalée de l'Inde[1]
+Aucuba</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ericacées
+Rhododendron jaune
+Rhododendron du pont
+Azalée de l'Inde
 Euphorbiaciées
-Croton[1]
-Poinsettia[1]
-Ricin[3]
-F
-Fabacées
-Mimosa du Japon[3]
-Fève coccinelle[2]
+Croton
+Poinsettia
+Ricin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fabacées
+Mimosa du Japon
+Fève coccinelle
 Ficacées
-Ficus[1]
-L
-Liliacées
-Ail[3]
-Chlorophytum[1]
-Chanvre d'Afrique[1]
-Jacinthe[1]
-Lys[1]
-Muguet[2]
-Oignon[3]
-Petit houx[3]
-Sceau de Salomon[2]
-Tulipe[1]
+Ficus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liliacées
+Ail
+Chlorophytum
+Chanvre d'Afrique
+Jacinthe
+Lys
+Muguet
+Oignon
+Petit houx
+Sceau de Salomon
+Tulipe
 Loranthacées
-Gui[3]
-P
-Primulacées
-Cyclamen[2]
-Primevère[2]
-S
-Scrofulariacées
-Digitales[2]
+Gui</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Primulacées
+Cyclamen
+Primevère</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Scrofulariacées
+Digitales
 Solanacées
-Pommier d'amour[3]
-Tabac[2]
+Pommier d'amour
+Tabac
 Sterculiacées
-Cacao et ses dérivés[3]
-V
-Verbenacées
-Lantana[1]</t>
+Cacao et ses dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plantes_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Familles de plantes par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Verbenacées
+Lantana</t>
         </is>
       </c>
     </row>
